--- a/box/二公寓三号楼（铺货表）.xlsx
+++ b/box/二公寓三号楼（铺货表）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360安全浏览器下载\lei(5-30)\box\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BoxData\box\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="4-29（1）" sheetId="15" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="44">
   <si>
     <t>3号</t>
   </si>
@@ -132,9 +132,6 @@
     <t>总额</t>
   </si>
   <si>
-    <t>销售额</t>
-  </si>
-  <si>
     <t>准备撤走</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -178,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +216,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -367,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2672,23 +2680,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="4" width="3.375" customWidth="1"/>
-    <col min="5" max="5" width="3.75" customWidth="1"/>
-    <col min="6" max="38" width="3.375" customWidth="1"/>
-    <col min="39" max="41" width="3.625" customWidth="1"/>
-    <col min="42" max="43" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="41" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -2751,19 +2756,17 @@
       <c r="AH1" s="36"/>
       <c r="AI1" s="37"/>
       <c r="AJ1" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK1" s="32"/>
       <c r="AL1" s="32"/>
-      <c r="AM1" s="36" t="s">
+      <c r="AM1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A2" s="34"/>
       <c r="B2" s="32"/>
       <c r="C2" s="3" t="s">
@@ -2866,13 +2869,13 @@
         <v>15</v>
       </c>
       <c r="AJ2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="27" t="s">
+      <c r="AL2" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="AL2" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="AM2" s="4" t="s">
         <v>13</v>
@@ -2880,17 +2883,11 @@
       <c r="AN2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AO2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>505</v>
       </c>
@@ -2954,16 +2951,8 @@
       </c>
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
-      <c r="AP3" s="5">
-        <f t="shared" ref="AP3:AP21" si="0">(C3)*0.9+(F3)*0.8+(I3)*4.5+(L3)+(O3)*3.8+R3+U3+X3*1.5+AA3*1.8+AD3*1.8+AG3*2+AM3*1.5</f>
-        <v>48.6</v>
-      </c>
-      <c r="AQ3" s="5">
-        <f t="shared" ref="AQ3:AQ21" si="1">(C3-D3)*0.9+(F3-G3)*0.8+(I3-J3)*4.5+(L3-M3)+(O3-P3)*3.8+(R3-S3)+(U3-V3)+(X3-Y3)*1.5+(AA3-AB3)*1.8+(AD3-AE3)*1.8+(AG3-AH3)*2+(AM3-AN3)*1.5</f>
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>506</v>
       </c>
@@ -3031,16 +3020,8 @@
       </c>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
-      <c r="AP4" s="5">
-        <f t="shared" si="0"/>
-        <v>66.599999999999994</v>
-      </c>
-      <c r="AQ4" s="5">
-        <f t="shared" si="1"/>
-        <v>66.599999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>507</v>
       </c>
@@ -3099,21 +3080,13 @@
       </c>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
-      <c r="AM5" s="24">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="5">
-        <f t="shared" si="0"/>
-        <v>63.1</v>
-      </c>
-      <c r="AQ5" s="5">
-        <f t="shared" si="1"/>
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM5" s="21">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>512</v>
       </c>
@@ -3170,21 +3143,13 @@
       </c>
       <c r="AK6" s="24"/>
       <c r="AL6" s="24"/>
-      <c r="AM6" s="16">
+      <c r="AM6" s="5">
         <v>10</v>
       </c>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="5">
-        <f t="shared" si="0"/>
-        <v>63.7</v>
-      </c>
-      <c r="AQ6" s="5">
-        <f t="shared" si="1"/>
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>518</v>
       </c>
@@ -3247,21 +3212,13 @@
       </c>
       <c r="AK7" s="16"/>
       <c r="AL7" s="16"/>
-      <c r="AM7" s="24">
+      <c r="AM7" s="21">
         <v>10</v>
       </c>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="5">
-        <f t="shared" si="0"/>
-        <v>82.6</v>
-      </c>
-      <c r="AQ7" s="5">
-        <f t="shared" si="1"/>
-        <v>82.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>522</v>
       </c>
@@ -3329,16 +3286,8 @@
       </c>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
-      <c r="AP8" s="5">
-        <f t="shared" si="0"/>
-        <v>76.2</v>
-      </c>
-      <c r="AQ8" s="5">
-        <f t="shared" si="1"/>
-        <v>76.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>535</v>
       </c>
@@ -3400,21 +3349,13 @@
       </c>
       <c r="AN9" s="21"/>
       <c r="AO9" s="21"/>
-      <c r="AP9" s="5">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="AQ9" s="5">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>304</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3452,19 +3393,11 @@
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>325</v>
       </c>
@@ -3531,21 +3464,13 @@
       </c>
       <c r="AK11" s="24"/>
       <c r="AL11" s="24"/>
-      <c r="AM11" s="24">
+      <c r="AM11" s="21">
         <v>14</v>
       </c>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="5">
-        <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="AQ11" s="5">
-        <f t="shared" si="1"/>
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>326</v>
       </c>
@@ -3610,21 +3535,13 @@
       </c>
       <c r="AK12" s="16"/>
       <c r="AL12" s="16"/>
-      <c r="AM12" s="16">
-        <v>4</v>
-      </c>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="5">
-        <f t="shared" si="0"/>
-        <v>64.8</v>
-      </c>
-      <c r="AQ12" s="5">
-        <f t="shared" si="1"/>
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>203</v>
       </c>
@@ -3687,21 +3604,13 @@
       </c>
       <c r="AK13" s="24"/>
       <c r="AL13" s="24"/>
-      <c r="AM13" s="24">
-        <v>6</v>
-      </c>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="5">
-        <f t="shared" si="0"/>
-        <v>42.099999999999994</v>
-      </c>
-      <c r="AQ13" s="5">
-        <f t="shared" si="1"/>
-        <v>42.099999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM13" s="21">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>207</v>
       </c>
@@ -3764,21 +3673,13 @@
       </c>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
-      <c r="AM14" s="30">
-        <v>2</v>
-      </c>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="5">
-        <f t="shared" si="0"/>
-        <v>30.4</v>
-      </c>
-      <c r="AQ14" s="5">
-        <f t="shared" si="1"/>
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>241</v>
       </c>
@@ -3841,26 +3742,18 @@
       </c>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
-      <c r="AM15" s="16">
+      <c r="AM15" s="5">
         <v>8</v>
       </c>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="5">
-        <f t="shared" si="0"/>
-        <v>59.3</v>
-      </c>
-      <c r="AQ15" s="5">
-        <f t="shared" si="1"/>
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
         <v>107</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>40</v>
+      <c r="B16" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="21">
         <v>4</v>
@@ -3922,21 +3815,13 @@
       </c>
       <c r="AK16" s="24"/>
       <c r="AL16" s="24"/>
-      <c r="AM16" s="24">
-        <v>2</v>
-      </c>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="5">
-        <f t="shared" si="0"/>
-        <v>29.3</v>
-      </c>
-      <c r="AQ16" s="5">
-        <f t="shared" si="1"/>
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>108</v>
       </c>
@@ -3997,21 +3882,13 @@
       </c>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
-      <c r="AM17" s="16">
-        <v>5</v>
-      </c>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="5">
-        <f t="shared" si="0"/>
-        <v>61.5</v>
-      </c>
-      <c r="AQ17" s="5">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
         <v>126</v>
       </c>
@@ -4076,21 +3953,13 @@
       </c>
       <c r="AK18" s="24"/>
       <c r="AL18" s="24"/>
-      <c r="AM18" s="16">
-        <v>6</v>
-      </c>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="5">
-        <f t="shared" si="0"/>
-        <v>56.599999999999994</v>
-      </c>
-      <c r="AQ18" s="5">
-        <f t="shared" si="1"/>
-        <v>56.599999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM18" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>138</v>
       </c>
@@ -4153,21 +4022,13 @@
       </c>
       <c r="AK19" s="16"/>
       <c r="AL19" s="16"/>
-      <c r="AM19" s="24">
-        <v>4</v>
-      </c>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="5">
-        <f t="shared" si="0"/>
-        <v>41.8</v>
-      </c>
-      <c r="AQ19" s="5">
-        <f t="shared" si="1"/>
-        <v>41.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM19" s="21">
+        <v>4</v>
+      </c>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4206,19 +4067,11 @@
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4257,19 +4110,11 @@
       <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
@@ -4313,22 +4158,16 @@
       <c r="AM22" s="13"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="13"/>
-      <c r="AP22" s="13">
-        <f>SUM(AP3:AP21)</f>
-        <v>933.29999999999984</v>
-      </c>
-      <c r="AQ22" s="13">
-        <f>SUM(AQ3:AQ21)</f>
-        <v>933.29999999999984</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="AQ23">
-        <v>445.7</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:A2"/>
@@ -4337,17 +4176,10 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16472,8 +16304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16545,7 +16377,7 @@
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
       <c r="AJ1" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="32"/>
       <c r="AL1" s="32"/>
@@ -17716,7 +17548,7 @@
         <v>609</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -18163,7 +17995,7 @@
         <v>632</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="21">
         <v>15</v>
@@ -18311,7 +18143,7 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -18356,13 +18188,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:A2"/>
@@ -18371,6 +18196,13 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/box/二公寓三号楼（铺货表）.xlsx
+++ b/box/二公寓三号楼（铺货表）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="4-29（1）" sheetId="15" r:id="rId1"/>
@@ -469,6 +469,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,71 +818,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="32" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2694,81 +2694,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32" t="s">
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="A16" s="21">
         <v>107</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="21">
@@ -4161,13 +4161,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:A2"/>
@@ -4176,6 +4169,13 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4201,71 +4201,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -5993,70 +5993,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
         <v>42861</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="32" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -7772,70 +7772,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
         <v>42861</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -9365,76 +9365,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -11245,76 +11245,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -12906,75 +12906,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10">
         <v>42875</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -14747,75 +14747,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>42875</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -16304,8 +16304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16315,81 +16315,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32" t="s">
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -18188,6 +18188,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:A2"/>
@@ -18196,13 +18203,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/box/二公寓三号楼（铺货表）.xlsx
+++ b/box/二公寓三号楼（铺货表）.xlsx
@@ -21,14 +21,16 @@
     <sheet name="5-19(1)" sheetId="21" r:id="rId7"/>
     <sheet name="5-19(2)" sheetId="22" r:id="rId8"/>
     <sheet name="5-29(1)" sheetId="23" r:id="rId9"/>
-    <sheet name="5-29(2)" sheetId="24" r:id="rId10"/>
+    <sheet name="6-10（1）" sheetId="25" r:id="rId10"/>
+    <sheet name="5-29(2)" sheetId="24" r:id="rId11"/>
+    <sheet name="6-10（2）" sheetId="26" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="45">
   <si>
     <t>3号</t>
   </si>
@@ -170,6 +172,10 @@
     <t>添</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>已撤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +482,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,71 +845,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2680,10 +2707,1915 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="41" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="22">
+        <v>707</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21">
+        <v>1</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21">
+        <v>0</v>
+      </c>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>711</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5">
+        <v>1</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="21">
+        <v>713</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="21">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21">
+        <v>3</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>716</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="5">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
+        <v>717</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21">
+        <v>0</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21">
+        <v>2</v>
+      </c>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>718</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>719</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
+        <v>3</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
+        <v>1</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21">
+        <v>0</v>
+      </c>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>721</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="21">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21">
+        <v>1</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21">
+        <v>0</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="21">
+        <v>12</v>
+      </c>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>727</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>2</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5">
+        <v>2</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>730</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5">
+        <v>5</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16">
+        <v>4</v>
+      </c>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="5">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>601</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5">
+        <v>5</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A14" s="21">
+        <v>602</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="21">
+        <v>6</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21">
+        <v>2</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21">
+        <v>1</v>
+      </c>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="21">
+        <v>10</v>
+      </c>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>604</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5">
+        <v>2</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A16" s="21">
+        <v>606</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21">
+        <v>3</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21">
+        <v>0</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>607</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5">
+        <v>8</v>
+      </c>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+    </row>
+    <row r="18" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="33">
+        <v>609</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33">
+        <v>4</v>
+      </c>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>615</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21">
+        <v>12</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <v>4</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21">
+        <v>4</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21">
+        <v>2</v>
+      </c>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21">
+        <v>6</v>
+      </c>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24">
+        <v>6</v>
+      </c>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="21">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>616</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5">
+        <v>1</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5">
+        <v>1</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5">
+        <v>12</v>
+      </c>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A21" s="21">
+        <v>622</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="21">
+        <v>9</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21">
+        <v>2</v>
+      </c>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21">
+        <v>1</v>
+      </c>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21">
+        <v>12</v>
+      </c>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21">
+        <v>15</v>
+      </c>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>623</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5">
+        <v>1</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A23" s="21">
+        <v>627</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21">
+        <v>2</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21">
+        <v>2</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21">
+        <v>1</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="21">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>630</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
+        <v>4</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5">
+        <v>1</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5">
+        <v>3</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="5">
+        <v>12</v>
+      </c>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A25" s="21">
+        <v>632</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="21">
+        <v>6</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21">
+        <v>1</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21">
+        <v>2</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21">
+        <v>0</v>
+      </c>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="21">
+        <v>4</v>
+      </c>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2694,81 +4626,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="39" t="s">
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33" t="s">
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -4161,6 +6093,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:A2"/>
@@ -4169,6 +6108,1500 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="AG1:AI1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="41" width="2.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>505</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
+        <v>506</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21">
+        <v>2</v>
+      </c>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>507</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="21">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A6" s="21">
+        <v>512</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="24">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="5">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>518</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5">
+        <v>4</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>522</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>535</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
+        <v>0</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21">
+        <v>3</v>
+      </c>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>304</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
+        <v>325</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21">
+        <v>0</v>
+      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="24">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="21">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>326</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A13" s="21">
+        <v>203</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21">
+        <v>2</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21">
+        <v>0</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21">
+        <v>1</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>207</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>241</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5">
+        <v>2</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+    </row>
+    <row r="16" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33">
+        <v>107</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="33">
+        <v>4</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33">
+        <v>2</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33">
+        <v>1</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33">
+        <v>2</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33">
+        <v>1</v>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33">
+        <v>3</v>
+      </c>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="37">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="33">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>108</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5">
+        <v>2</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
+        <v>126</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
+        <v>6</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21">
+        <v>0</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21">
+        <v>4</v>
+      </c>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>138</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
@@ -4176,6 +7609,12 @@
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4201,71 +7640,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -5993,70 +9432,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
         <v>42861</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -7772,70 +11211,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
         <v>42861</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -9365,76 +12804,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="33" t="s">
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -11245,76 +14684,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="33" t="s">
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -12906,75 +16345,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10">
         <v>42875</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="33" t="s">
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -14747,75 +18186,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>42875</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="33" t="s">
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -16305,7 +19744,7 @@
   <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16315,81 +19754,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="37" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="39" t="s">
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33" t="s">
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -18188,13 +21627,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:A2"/>
@@ -18203,6 +21635,13 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/box/二公寓三号楼（铺货表）.xlsx
+++ b/box/二公寓三号楼（铺货表）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="4-29（1）" sheetId="15" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="5-19(1)" sheetId="21" r:id="rId7"/>
     <sheet name="5-19(2)" sheetId="22" r:id="rId8"/>
     <sheet name="5-29(1)" sheetId="23" r:id="rId9"/>
-    <sheet name="6-10（1）" sheetId="25" r:id="rId10"/>
-    <sheet name="5-29(2)" sheetId="24" r:id="rId11"/>
-    <sheet name="6-10（2）" sheetId="26" r:id="rId12"/>
+    <sheet name="5-29(2)" sheetId="24" r:id="rId10"/>
+    <sheet name="10-7（1）" sheetId="27" r:id="rId11"/>
+    <sheet name="10-8（1）" sheetId="28" r:id="rId12"/>
+    <sheet name="10-7（2）" sheetId="26" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="51">
   <si>
     <t>3号</t>
   </si>
@@ -173,15 +174,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>手磨豆腐卷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*已撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*已撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>已撤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还未去</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>还未去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +247,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -230,6 +256,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -384,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +531,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,6 +553,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,71 +883,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="38" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2707,10 +2745,1515 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="41" width="2.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>505</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
+        <v>5</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="21">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
+        <v>506</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
+        <v>2</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21">
+        <v>2</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21">
+        <v>2</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21">
+        <v>5</v>
+      </c>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>507</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5">
+        <v>5</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="16">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="21">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A6" s="21">
+        <v>512</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21">
+        <v>15</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="24">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>518</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5">
+        <v>6</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="16">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="21">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>522</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>10</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
+        <v>5</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5">
+        <v>2</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>535</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21">
+        <v>5</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21">
+        <v>2</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
+        <v>1</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21">
+        <v>4</v>
+      </c>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>304</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
+        <v>325</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="21">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21">
+        <v>4</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21">
+        <v>2</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21">
+        <v>1</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21">
+        <v>4</v>
+      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="24">
+        <v>9</v>
+      </c>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="21">
+        <v>14</v>
+      </c>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>326</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5">
+        <v>2</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A13" s="21">
+        <v>203</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21">
+        <v>2</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21">
+        <v>2</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21">
+        <v>1</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21">
+        <v>1</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="21">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>207</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="28">
+        <v>1</v>
+      </c>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28">
+        <v>3</v>
+      </c>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>241</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>2</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>2</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5">
+        <v>10</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="16">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="5">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A16" s="21">
+        <v>107</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="21">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
+        <v>2</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21">
+        <v>2</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21">
+        <v>0</v>
+      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21">
+        <v>1</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21">
+        <v>3</v>
+      </c>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="24">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>108</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5">
+        <v>10</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
+        <v>126</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
+        <v>12</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21">
+        <v>2</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21">
+        <v>6</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21">
+        <v>0</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21">
+        <v>2</v>
+      </c>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21">
+        <v>4</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="24">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>138</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>3</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5">
+        <v>3</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5">
+        <v>3</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="21">
+        <v>4</v>
+      </c>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="AG1:AI1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2721,81 +4264,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="44" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38" t="s">
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2918,135 +4461,91 @@
       <c r="A3" s="22">
         <v>707</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21">
-        <v>2</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21">
-        <v>1</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21">
-        <v>0</v>
-      </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21">
-        <v>0</v>
-      </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
+      <c r="B3" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>711</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5">
-        <v>5</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
+      <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5">
-        <v>1</v>
-      </c>
+      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="5">
-        <v>2</v>
-      </c>
+      <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="5">
-        <v>0</v>
-      </c>
+      <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-      <c r="AG4" s="5">
-        <v>2</v>
-      </c>
+      <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="5">
-        <v>1</v>
-      </c>
+      <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
-      <c r="AM4" s="5">
-        <v>0</v>
-      </c>
+      <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
     </row>
@@ -3058,22 +4557,22 @@
         <v>17</v>
       </c>
       <c r="C5" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -3085,11 +4584,13 @@
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
+      <c r="U5" s="21">
+        <v>1</v>
+      </c>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
@@ -3102,12 +4603,12 @@
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
       <c r="AG5" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="21"/>
       <c r="AI5" s="24"/>
       <c r="AJ5" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="24"/>
       <c r="AL5" s="24"/>
@@ -3124,65 +4625,43 @@
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5">
-        <v>4</v>
-      </c>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
+      <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
+      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="5">
-        <v>2</v>
-      </c>
+      <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
+      <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="5">
-        <v>2</v>
-      </c>
+      <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="16"/>
-      <c r="AJ6" s="16">
-        <v>0</v>
-      </c>
+      <c r="AJ6" s="16"/>
       <c r="AK6" s="16"/>
       <c r="AL6" s="16"/>
-      <c r="AM6" s="5">
-        <v>9</v>
-      </c>
+      <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
     </row>
@@ -3193,65 +4672,43 @@
       <c r="B7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21">
-        <v>3</v>
-      </c>
+      <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="21">
-        <v>1</v>
-      </c>
+      <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="21">
-        <v>1</v>
-      </c>
+      <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="21">
-        <v>1</v>
-      </c>
+      <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="21">
-        <v>0</v>
-      </c>
+      <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
-      <c r="U7" s="21">
-        <v>2</v>
-      </c>
+      <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="21">
-        <v>2</v>
-      </c>
+      <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
-      <c r="AA7" s="21">
-        <v>0</v>
-      </c>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
-      <c r="AG7" s="21">
-        <v>10</v>
-      </c>
+      <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="24">
-        <v>0</v>
-      </c>
+      <c r="AJ7" s="24"/>
       <c r="AK7" s="24"/>
       <c r="AL7" s="24"/>
-      <c r="AM7" s="21">
-        <v>1</v>
-      </c>
+      <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
       <c r="AO7" s="21"/>
     </row>
@@ -3262,65 +4719,43 @@
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5">
-        <v>3</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
+      <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
+      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="5">
-        <v>5</v>
-      </c>
+      <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="5">
-        <v>5</v>
-      </c>
+      <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="5">
-        <v>3</v>
-      </c>
+      <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="5">
-        <v>1</v>
-      </c>
+      <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="5">
-        <v>0</v>
-      </c>
+      <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
     </row>
@@ -3330,22 +4765,22 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
@@ -3353,7 +4788,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -3376,7 +4811,7 @@
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="21"/>
       <c r="AI9" s="21"/>
@@ -3386,7 +4821,7 @@
       <c r="AK9" s="21"/>
       <c r="AL9" s="21"/>
       <c r="AM9" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="21"/>
       <c r="AO9" s="21"/>
@@ -3398,24 +4833,16 @@
       <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21">
-        <v>3</v>
-      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21">
-        <v>3</v>
-      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="21">
-        <v>1</v>
-      </c>
+      <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="21">
-        <v>1</v>
-      </c>
+      <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -3424,37 +4851,25 @@
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
-      <c r="U10" s="21">
-        <v>0</v>
-      </c>
+      <c r="U10" s="21"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="21">
-        <v>2</v>
-      </c>
+      <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
-      <c r="AA10" s="21">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="21"/>
       <c r="AE10" s="21"/>
       <c r="AF10" s="21"/>
-      <c r="AG10" s="21">
-        <v>2</v>
-      </c>
+      <c r="AG10" s="21"/>
       <c r="AH10" s="21"/>
       <c r="AI10" s="24"/>
-      <c r="AJ10" s="24">
-        <v>2</v>
-      </c>
+      <c r="AJ10" s="24"/>
       <c r="AK10" s="24"/>
       <c r="AL10" s="24"/>
-      <c r="AM10" s="21">
-        <v>12</v>
-      </c>
+      <c r="AM10" s="21"/>
       <c r="AN10" s="21"/>
       <c r="AO10" s="21"/>
     </row>
@@ -3463,65 +4878,43 @@
         <v>727</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>3</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>2</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5">
-        <v>2</v>
-      </c>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
+      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5">
-        <v>2</v>
-      </c>
+      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="5">
-        <v>2</v>
-      </c>
+      <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="5">
-        <v>0</v>
-      </c>
+      <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="5">
-        <v>2</v>
-      </c>
+      <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="5">
-        <v>1</v>
-      </c>
+      <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="5">
-        <v>6</v>
-      </c>
+      <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
     </row>
@@ -3598,17 +4991,17 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3626,17 +5019,17 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -3644,17 +5037,17 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH13" s="5"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="16"/>
       <c r="AL13" s="16"/>
       <c r="AM13" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
@@ -3663,70 +5056,48 @@
       <c r="A14" s="21">
         <v>602</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="21">
-        <v>6</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21">
-        <v>3</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21">
-        <v>2</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21">
-        <v>1</v>
-      </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21">
-        <v>1</v>
-      </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21">
-        <v>3</v>
-      </c>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24">
-        <v>4</v>
-      </c>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="21">
-        <v>10</v>
-      </c>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
+      <c r="B14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
@@ -3735,65 +5106,43 @@
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
+      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
+      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5">
-        <v>2</v>
-      </c>
+      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5">
-        <v>10</v>
-      </c>
+      <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5">
-        <v>0</v>
-      </c>
+      <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="5">
-        <v>6</v>
-      </c>
+      <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="16"/>
-      <c r="AJ15" s="16">
-        <v>1</v>
-      </c>
+      <c r="AJ15" s="16"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
-      <c r="AM15" s="5">
-        <v>1</v>
-      </c>
+      <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
     </row>
@@ -3931,12 +5280,12 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
     </row>
-    <row r="18" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33">
+    <row r="18" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>609</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -3971,9 +5320,7 @@
       <c r="AG18" s="33"/>
       <c r="AH18" s="33"/>
       <c r="AI18" s="33"/>
-      <c r="AJ18" s="33">
-        <v>4</v>
-      </c>
+      <c r="AJ18" s="33"/>
       <c r="AK18" s="33"/>
       <c r="AL18" s="33"/>
       <c r="AM18" s="33"/>
@@ -3987,65 +5334,43 @@
       <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="21">
-        <v>12</v>
-      </c>
+      <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <v>4</v>
-      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="21">
-        <v>4</v>
-      </c>
+      <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="21">
-        <v>0</v>
-      </c>
+      <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="21">
-        <v>0</v>
-      </c>
+      <c r="R19" s="21"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
-      <c r="U19" s="21">
-        <v>2</v>
-      </c>
+      <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="21">
-        <v>10</v>
-      </c>
+      <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
-      <c r="AA19" s="21">
-        <v>7</v>
-      </c>
+      <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
-      <c r="AG19" s="21">
-        <v>6</v>
-      </c>
+      <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="24">
-        <v>6</v>
-      </c>
+      <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
       <c r="AL19" s="24"/>
-      <c r="AM19" s="21">
-        <v>8</v>
-      </c>
+      <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
       <c r="AO19" s="21"/>
     </row>
@@ -4055,22 +5380,22 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -4078,17 +5403,17 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -4101,17 +5426,17 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AH20" s="5"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
@@ -4257,63 +5582,43 @@
       <c r="B23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="21">
-        <v>1</v>
-      </c>
+      <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="21">
-        <v>2</v>
-      </c>
+      <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="21">
-        <v>2</v>
-      </c>
+      <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="21">
-        <v>1</v>
-      </c>
+      <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="21">
-        <v>0</v>
-      </c>
+      <c r="R23" s="21"/>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
-      <c r="X23" s="21">
-        <v>5</v>
-      </c>
+      <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
-      <c r="AA23" s="21">
-        <v>0</v>
-      </c>
+      <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="21"/>
       <c r="AE23" s="21"/>
       <c r="AF23" s="21"/>
-      <c r="AG23" s="21">
-        <v>2</v>
-      </c>
+      <c r="AG23" s="21"/>
       <c r="AH23" s="21"/>
       <c r="AI23" s="24"/>
-      <c r="AJ23" s="24">
-        <v>0</v>
-      </c>
+      <c r="AJ23" s="24"/>
       <c r="AK23" s="24"/>
       <c r="AL23" s="24"/>
-      <c r="AM23" s="21">
-        <v>12</v>
-      </c>
+      <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
       <c r="AO23" s="21"/>
     </row>
@@ -4325,7 +5630,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -4335,12 +5640,12 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -4348,22 +5653,22 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
@@ -4371,7 +5676,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AH24" s="5"/>
       <c r="AI24" s="16"/>
@@ -4381,7 +5686,7 @@
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
       <c r="AM24" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
@@ -4391,10 +5696,10 @@
         <v>632</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C25" s="21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -4404,7 +5709,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
@@ -4427,7 +5732,7 @@
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
       <c r="X25" s="21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
@@ -4440,7 +5745,7 @@
       <c r="AE25" s="21"/>
       <c r="AF25" s="21"/>
       <c r="AG25" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH25" s="21"/>
       <c r="AI25" s="24"/>
@@ -4450,7 +5755,7 @@
       <c r="AK25" s="24"/>
       <c r="AL25" s="24"/>
       <c r="AM25" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="21"/>
       <c r="AO25" s="21"/>
@@ -4588,6 +5893,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -4597,110 +5908,103 @@
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="41" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="41" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" s="42"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
-      <c r="AJ1" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38" t="s">
+      <c r="AJ1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -4797,17 +6101,17 @@
       <c r="AH2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK2" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL2" s="27" t="s">
-        <v>43</v>
+      <c r="AJ2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="AM2" s="4" t="s">
         <v>13</v>
@@ -4821,95 +6125,105 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <v>505</v>
+        <v>711</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
+      <c r="AD3" s="5">
+        <v>0</v>
+      </c>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
-      <c r="AM3" s="21">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
+      <c r="AM3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
-        <v>506</v>
-      </c>
-      <c r="B4" s="21"/>
+        <v>713</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21">
@@ -4918,126 +6232,114 @@
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="21"/>
       <c r="AC4" s="21"/>
-      <c r="AD4" s="21">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="21"/>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
       <c r="AG4" s="21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>507</v>
+        <v>716</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>2</v>
-      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5">
-        <v>2</v>
-      </c>
+      <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5">
-        <v>5</v>
-      </c>
+      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5">
-        <v>12</v>
-      </c>
+      <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
+      <c r="AG5" s="5">
+        <v>2</v>
+      </c>
       <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="16">
-        <v>2</v>
-      </c>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
-      <c r="AM5" s="21">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
+      <c r="AM5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
-        <v>512</v>
+        <v>717</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="21">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>3</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>2</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
@@ -5052,189 +6354,157 @@
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="21">
-        <v>2</v>
-      </c>
+      <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
-      <c r="AA6" s="21">
-        <v>6</v>
-      </c>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
-      <c r="AG6" s="21">
-        <v>5</v>
-      </c>
+      <c r="AG6" s="21"/>
       <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="24">
-        <v>4</v>
-      </c>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
       <c r="AK6" s="24"/>
       <c r="AL6" s="24"/>
-      <c r="AM6" s="5">
-        <v>10</v>
-      </c>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>518</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>718</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5">
-        <v>3</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
+      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5">
-        <v>6</v>
-      </c>
+      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="5">
-        <v>2</v>
-      </c>
+      <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="5">
-        <v>10</v>
-      </c>
+      <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="5">
-        <v>10</v>
-      </c>
+      <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="16">
-        <v>4</v>
-      </c>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="21">
-        <v>10</v>
-      </c>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>522</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
-        <v>3</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
-        <v>10</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5">
-        <v>5</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5">
-        <v>2</v>
-      </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5">
-        <v>10</v>
-      </c>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
+      <c r="A8" s="21">
+        <v>719</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21">
+        <v>12</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21">
+        <v>0</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21">
+        <v>0</v>
+      </c>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
-        <v>535</v>
-      </c>
-      <c r="B9" s="21"/>
+        <v>721</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="21">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="21">
-        <v>2</v>
-      </c>
+      <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -5243,53 +6513,39 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="21">
-        <v>1</v>
-      </c>
+      <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="21">
-        <v>4</v>
-      </c>
+      <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="21">
-        <v>3</v>
-      </c>
+      <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
-      <c r="AA9" s="21">
-        <v>5</v>
-      </c>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="21"/>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
-      <c r="AG9" s="21">
-        <v>2</v>
-      </c>
+      <c r="AG9" s="21"/>
       <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="21"/>
       <c r="AN9" s="21"/>
       <c r="AO9" s="21"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>304</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>727</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>12</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5322,6 +6578,1567 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>730</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>2</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5">
+        <v>5</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="5">
+        <v>7</v>
+      </c>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>601</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>604</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A14" s="21">
+        <v>606</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21">
+        <v>12</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21">
+        <v>0</v>
+      </c>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>607</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
+        <v>615</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="21">
+        <v>24</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>616</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
+        <v>622</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="21">
+        <v>36</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21">
+        <v>0</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="21"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>623</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A20" s="21">
+        <v>627</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="21">
+        <v>24</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>630</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="41" width="2.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>505</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="21">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
+        <v>506</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21">
+        <v>2</v>
+      </c>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>507</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="21">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A6" s="21">
+        <v>512</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="24">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="5">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>518</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5">
+        <v>4</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>522</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>535</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
+        <v>0</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21">
+        <v>3</v>
+      </c>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>304</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
@@ -5337,28 +8154,26 @@
         <v>17</v>
       </c>
       <c r="C11" s="21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
-      <c r="O11" s="21">
-        <v>1</v>
-      </c>
+      <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21">
@@ -5367,7 +8182,7 @@
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
@@ -5377,27 +8192,25 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
-      <c r="AD11" s="21">
-        <v>2</v>
-      </c>
+      <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="21"/>
       <c r="AI11" s="21"/>
       <c r="AJ11" s="24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK11" s="24"/>
       <c r="AL11" s="24"/>
       <c r="AM11" s="21">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AN11" s="21"/>
       <c r="AO11" s="21"/>
@@ -5410,22 +8223,22 @@
         <v>17</v>
       </c>
       <c r="C12" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -5438,23 +8251,21 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="5">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5">
@@ -5468,7 +8279,7 @@
       <c r="AK12" s="16"/>
       <c r="AL12" s="16"/>
       <c r="AM12" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
@@ -5479,7 +8290,7 @@
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -5489,12 +8300,12 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
@@ -5502,7 +8313,7 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
@@ -5512,32 +8323,30 @@
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
-      <c r="AD13" s="21">
-        <v>1</v>
-      </c>
+      <c r="AD13" s="21"/>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="21"/>
       <c r="AI13" s="21"/>
       <c r="AJ13" s="24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="24"/>
       <c r="AL13" s="24"/>
       <c r="AM13" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="21"/>
       <c r="AO13" s="21"/>
@@ -5548,47 +8357,45 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
+      <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
       <c r="U14" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
       <c r="X14" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
       <c r="AA14" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
@@ -5596,17 +8403,17 @@
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
       <c r="AG14" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
       <c r="AM14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
@@ -5619,22 +8426,22 @@
         <v>17</v>
       </c>
       <c r="C15" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
-        <v>2</v>
-      </c>
-      <c r="J15" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -5642,22 +8449,22 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -5670,88 +8477,84 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
       <c r="AM15" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A16" s="21">
+    <row r="16" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33">
         <v>107</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="21">
-        <v>4</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
-        <v>2</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21">
-        <v>1</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21">
-        <v>2</v>
-      </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21">
-        <v>0</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21">
-        <v>1</v>
-      </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21">
-        <v>3</v>
-      </c>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="24">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="21">
-        <v>2</v>
-      </c>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
+      <c r="C16" s="33">
+        <v>4</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33">
+        <v>2</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33">
+        <v>1</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33">
+        <v>2</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33">
+        <v>1</v>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33">
+        <v>3</v>
+      </c>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="37">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="33">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
@@ -5759,17 +8562,17 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -5787,17 +8590,17 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -5805,17 +8608,17 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
       <c r="AM17" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
@@ -5826,42 +8629,40 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="21">
-        <v>0</v>
-      </c>
+      <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
@@ -5870,23 +8671,21 @@
       </c>
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
-      <c r="AD18" s="21">
-        <v>1</v>
-      </c>
+      <c r="AD18" s="21"/>
       <c r="AE18" s="21"/>
       <c r="AF18" s="21"/>
       <c r="AG18" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
       <c r="AJ18" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="24"/>
       <c r="AL18" s="24"/>
       <c r="AM18" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
@@ -5897,47 +8696,45 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
+      <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -5945,7 +8742,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
@@ -5955,7 +8752,7 @@
       <c r="AK19" s="16"/>
       <c r="AL19" s="16"/>
       <c r="AM19" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN19" s="21"/>
       <c r="AO19" s="21"/>
@@ -6093,1513 +8890,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="AG1:AI1"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="41" width="2.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK2" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>505</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5">
-        <v>1</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="21">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
-        <v>506</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21">
-        <v>1</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21">
-        <v>0</v>
-      </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21">
-        <v>2</v>
-      </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>507</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="21">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
-        <v>512</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="5">
-        <v>7</v>
-      </c>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>518</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5">
-        <v>4</v>
-      </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5">
-        <v>10</v>
-      </c>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="21">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>522</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5">
-        <v>1</v>
-      </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
-        <v>535</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21">
-        <v>3</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
-        <v>0</v>
-      </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21">
-        <v>3</v>
-      </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>304</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5">
-        <v>1</v>
-      </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
-        <v>325</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="21">
-        <v>3</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21">
-        <v>2</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21">
-        <v>0</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21">
-        <v>0</v>
-      </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21">
-        <v>0</v>
-      </c>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="24">
-        <v>4</v>
-      </c>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="21">
-        <v>5</v>
-      </c>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>326</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5">
-        <v>1</v>
-      </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5">
-        <v>3</v>
-      </c>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
-        <v>203</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21">
-        <v>2</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21">
-        <v>0</v>
-      </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21">
-        <v>0</v>
-      </c>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21">
-        <v>1</v>
-      </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="24">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="21">
-        <v>2</v>
-      </c>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>207</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="28">
-        <v>0</v>
-      </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28">
-        <v>0</v>
-      </c>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="5">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>241</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5">
-        <v>2</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="5">
-        <v>3</v>
-      </c>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-    </row>
-    <row r="16" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33">
-        <v>107</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="33">
-        <v>4</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33">
-        <v>2</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33">
-        <v>1</v>
-      </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33">
-        <v>2</v>
-      </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33">
-        <v>1</v>
-      </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33">
-        <v>3</v>
-      </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="37">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="33">
-        <v>2</v>
-      </c>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>108</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5">
-        <v>1</v>
-      </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5">
-        <v>2</v>
-      </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5">
-        <v>5</v>
-      </c>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
-        <v>126</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21">
-        <v>6</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21">
-        <v>0</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21">
-        <v>0</v>
-      </c>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21">
-        <v>4</v>
-      </c>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="24">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="5">
-        <v>3</v>
-      </c>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <v>138</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5">
-        <v>1</v>
-      </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5">
-        <v>1</v>
-      </c>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5">
-        <v>5</v>
-      </c>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="16">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="21">
-        <v>2</v>
-      </c>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="21"/>
-      <c r="AO21" s="21"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -7640,71 +8930,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -9432,70 +10722,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
         <v>42861</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="38" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -11211,70 +12501,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
         <v>42861</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -12804,76 +14094,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -14684,76 +15974,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -16345,75 +17635,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10">
         <v>42875</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -18186,75 +19476,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>42875</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -19754,81 +21044,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="44" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38" t="s">
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
